--- a/clase2/Estadistica Graficos.xlsx
+++ b/clase2/Estadistica Graficos.xlsx
@@ -34,7 +34,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>fi</t>
+    <t>xi</t>
   </si>
   <si>
     <t>Se añaden ceros para cerrar el poligono</t>
@@ -80,7 +80,6 @@
     <font>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -119,26 +118,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -155,6 +149,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -166,37 +161,26 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="156082"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="156082"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$P$28</c:f>
+              <c:f>Hoja1!$P$16:$P$23</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$P$16:$P$23</c:f>
+              <c:f>Hoja1!$L$16:$L$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="539563582"/>
-        <c:axId val="1406200469"/>
+        <c:axId val="1639531812"/>
+        <c:axId val="1508971685"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="539563582"/>
+        <c:axId val="1639531812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -248,10 +232,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1406200469"/>
+        <c:crossAx val="1508971685"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1406200469"/>
+        <c:axId val="1508971685"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -326,7 +310,218 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539563582"/>
+        <c:crossAx val="1639531812"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="156082"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$K$4:$K$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$P$4:$P$10</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1308174887"/>
+        <c:axId val="584411927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1308174887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584411927"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="584411927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1308174887"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -356,10 +551,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -381,6 +576,31 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -393,7 +613,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip cstate="print" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -617,7 +837,7 @@
     <col customWidth="1" min="1" max="12" width="10.63"/>
     <col customWidth="1" min="13" max="13" width="13.75"/>
     <col customWidth="1" min="14" max="14" width="19.13"/>
-    <col customWidth="1" min="15" max="26" width="10.63"/>
+    <col customWidth="1" min="15" max="18" width="10.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -656,24 +876,24 @@
       <c r="K5" s="5">
         <v>100.0</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="6">
         <v>2.0</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <f t="shared" ref="M5:M10" si="1">L5/$L$11</f>
         <v>0.05128205128</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="8">
         <v>0.0512820512820513</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="9">
         <f>N5</f>
         <v>0.05128205128</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="6">
         <v>2.0</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="10">
         <f t="shared" ref="Q5:Q10" si="2">(J5+K5)/2</f>
         <v>75</v>
       </c>
@@ -685,25 +905,25 @@
       <c r="K6" s="5">
         <v>150.0</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="10">
         <v>4.0</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <f t="shared" si="1"/>
         <v>0.1025641026</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="8">
         <v>0.102564102564103</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="9">
         <f>N6+N5</f>
         <v>0.1538461538</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="10">
         <f>L6+2</f>
         <v>6</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="10">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
@@ -715,29 +935,29 @@
       <c r="K7" s="5">
         <v>200.0</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="10">
         <v>6.0</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="7">
         <f t="shared" si="1"/>
         <v>0.1538461538</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="8">
         <v>0.153846153846154</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="9">
         <f>N7+N6+N5</f>
         <v>0.3076923077</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="10">
         <f>L7+L6+L5</f>
         <v>12</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="10">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="R7" s="10"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="J8" s="5">
@@ -746,25 +966,25 @@
       <c r="K8" s="5">
         <v>250.0</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="6">
         <v>8.0</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="7">
         <f t="shared" si="1"/>
         <v>0.2051282051</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="8">
         <v>0.205128205128205</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="9">
         <f>N8+N7+N6+N5</f>
         <v>0.5128205128</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="10">
         <f>8+L7+L6+L5</f>
         <v>20</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="10">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
@@ -776,25 +996,25 @@
       <c r="K9" s="5">
         <v>300.0</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="10">
         <v>9.0</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="7">
         <f t="shared" si="1"/>
         <v>0.2307692308</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="8">
         <v>0.230769230769231</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="9">
         <f>N9+N8+N7+N6+N5</f>
         <v>0.7435897436</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="10">
         <f t="shared" ref="P9:P10" si="3">P8+L9</f>
         <v>29</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="10">
         <f t="shared" si="2"/>
         <v>275</v>
       </c>
@@ -806,116 +1026,116 @@
       <c r="K10" s="5">
         <v>350.0</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="10">
         <v>10.0</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="7">
         <f t="shared" si="1"/>
         <v>0.2564102564</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="8">
         <v>0.256410256410256</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="9">
         <f>N10+N9+N8+N7+N6+N5</f>
         <v>1</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="10">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="10">
         <f t="shared" si="2"/>
         <v>325</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10">
         <f>SUM(L5:L10)</f>
         <v>39</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="K12" s="11"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="K13" s="11"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="R14" s="10"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" ht="14.25" customHeight="1"/>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="L16" s="10">
+      <c r="L16" s="11">
         <v>0.0</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="11">
         <v>65.0</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="L17" s="4">
+      <c r="L17" s="6">
         <v>2.0</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="13">
         <v>75.0</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="L18" s="9">
+      <c r="L18" s="10">
         <v>4.0</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="13">
         <v>125.0</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="L19" s="9">
+      <c r="L19" s="10">
         <v>6.0</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="13">
         <v>175.0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="L20" s="4">
+      <c r="L20" s="6">
         <v>8.0</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="13">
         <v>225.0</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="L21" s="9">
+      <c r="L21" s="10">
         <v>9.0</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="13">
         <v>275.0</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="L22" s="9">
+      <c r="L22" s="10">
         <v>10.0</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="13">
         <v>325.0</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="L23" s="10">
+      <c r="L23" s="11">
         <v>0.0</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="11">
         <v>335.0</v>
       </c>
     </row>
@@ -1119,783 +1339,783 @@
     <row r="221" ht="14.25" customHeight="1"/>
     <row r="222" ht="14.25" customHeight="1"/>
     <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
